--- a/833 Nils Andreas Skreddernes Prosjektliste 2022.xlsx
+++ b/833 Nils Andreas Skreddernes Prosjektliste 2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://froilandbskade.sharepoint.com/sites/FBSskadearkiv/Skadearkiv 2022/Prosjektlister 2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73b1eea2b843a2c4/Documents/Programering/Python/Excel 2/eXl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{8BE72A51-EBEC-4E6A-8424-44F00E79060E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5095DB75-541A-4151-8683-54EDAAE6EA88}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{8BE72A51-EBEC-4E6A-8424-44F00E79060E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7AEE902-E90E-4CA7-AADC-E7E1CCA62BF0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4755" yWindow="4680" windowWidth="21600" windowHeight="11265" xr2:uid="{4DC12D88-08A4-43A5-94ED-7CF30C4AAEA9}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="28800" windowHeight="11385" xr2:uid="{4DC12D88-08A4-43A5-94ED-7CF30C4AAEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prosjektliste" sheetId="1" r:id="rId1"/>
@@ -54,91 +54,91 @@
   <commentList>
     <comment ref="B15" authorId="0" shapeId="0" xr:uid="{EC860BF5-E508-4148-9E8F-98ADE81202A6}">
       <text>
-        <t>[Kommentartråd]
-Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     HUSK! Legg inn prosjektnummeret som arbeidsnummer i in4mo. Arbeidnummer fylles ut her:
 Prosjektledelse-&gt;Oppgaveinformasjon-&gt;Rediger.</t>
       </text>
     </comment>
     <comment ref="H15" authorId="1" shapeId="0" xr:uid="{5912066F-2B28-40D1-9588-EC4FE002D33C}">
       <text>
-        <t xml:space="preserve">[Kommentartråd]
-Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Skriv hva slags skade det er. </t>
       </text>
     </comment>
     <comment ref="K15" authorId="2" shapeId="0" xr:uid="{B3C9938C-EE0E-4C12-8904-4BA86B148A17}">
       <text>
-        <t xml:space="preserve">[Kommentartråd]
-Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Legg inn navn på kunden. ENDRING: legges inn uavhengig om det er privat kunde eller forsikringsskade. </t>
       </text>
     </comment>
     <comment ref="L15" authorId="3" shapeId="0" xr:uid="{62D2FEB2-B9C0-472D-BB62-E8C0A6269948}">
       <text>
-        <t xml:space="preserve">[Kommentartråd]
-Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Legg inn sum på hva som er fakturert. Marker gult på a-konto og grønt på sluttfakturert. Da får man full kontroll og slipper å risikere feilfakturering. </t>
       </text>
     </comment>
     <comment ref="M15" authorId="4" shapeId="0" xr:uid="{09EFCC2B-1041-41C7-B854-EEC3E209BF13}">
       <text>
-        <t>[Kommentartråd]
-Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Velg status på prosjektet. Fargekoder kommer automatisk. Teksten kan redigeres</t>
       </text>
     </comment>
     <comment ref="N15" authorId="5" shapeId="0" xr:uid="{EC1EA89B-935B-4E14-AD50-FDA39C320543}">
       <text>
-        <t>[Kommentartråd]
-Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Legg inn godkjent budsjett her. Legg inn estimat hvis den ikke er kalkulert enda</t>
       </text>
     </comment>
     <comment ref="O15" authorId="6" shapeId="0" xr:uid="{A68FB6FE-B4B2-45BF-A9D0-FF77E20AA3FD}">
       <text>
-        <t>[Kommentartråd]
-Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Gjenstående arbeid beregnes automatisk hvis tak og fakturert er fylt ut</t>
       </text>
     </comment>
     <comment ref="P15" authorId="7" shapeId="0" xr:uid="{66CB133A-23C8-4859-9D7D-A5B031B0891D}">
       <text>
-        <t>[Kommentartråd]
-Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Hold listen oppdatert for kontroll på kalkylen</t>
       </text>
     </comment>
     <comment ref="T15" authorId="8" shapeId="0" xr:uid="{25AE5909-ECAA-4236-B148-2FD95DA24F68}">
       <text>
-        <t>[Kommentartråd]
-Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Melding til kontrollør. Hva ønsker du med utført kontroll?
 Beskriv når trenger du svar, om det haster osv.</t>
       </text>
     </comment>
     <comment ref="U15" authorId="9" shapeId="0" xr:uid="{8867D67B-467B-43D4-B99C-00DADB167A85}">
       <text>
-        <t>[Kommentartråd]
-Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Velg type gjennomgang fra rullegardin</t>
       </text>
     </comment>
     <comment ref="V15" authorId="10" shapeId="0" xr:uid="{E7FE946C-2FED-43A6-84FC-1F6B9387AE01}">
       <text>
-        <t>[Kommentartråd]
-Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Beskriv om det har vært utført privat arbeid på prosjektet som det må tas hensyn til ved kontroll</t>
       </text>
     </comment>
@@ -157,34 +157,34 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DC3FAA1E-38C1-4980-A05C-4FBEB9CCB2E4}">
       <text>
-        <t>[Kommentartråd]
-Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     HUSK! Legg inn prosjektnummeret som arbeidsnummer i in4mo. Arbeidnummer fylles ut her:
 Prosjektledelse-&gt;Oppgaveinformasjon-&gt;Rediger.</t>
       </text>
     </comment>
     <comment ref="E2" authorId="1" shapeId="0" xr:uid="{A7D4BFF9-0C05-460C-8F7B-374CBF327EA2}">
       <text>
-        <t>[Kommentartråd]
-Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Totalt fakturert av prosjektleder</t>
       </text>
     </comment>
     <comment ref="G2" authorId="2" shapeId="0" xr:uid="{2B0B6675-4BB4-4935-9713-FF54A86A8162}">
       <text>
-        <t>[Kommentartråd]
-Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Sum totalt fakturert pr. måned.</t>
       </text>
     </comment>
     <comment ref="E3" authorId="3" shapeId="0" xr:uid="{29246F93-FFE0-487C-97D9-4223DACB6ACD}">
       <text>
-        <t>[Kommentartråd]
-Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Fylles ut automatisk. Sum av totalt fakturert i prosjektet.</t>
       </text>
     </comment>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="148">
   <si>
     <t>Prosjektnr for 2022</t>
   </si>
@@ -656,6 +656,12 @@
   </si>
   <si>
     <t>Ole Petter Nyland</t>
+  </si>
+  <si>
+    <t>Ingenskade</t>
+  </si>
+  <si>
+    <t>Kontantkalkyle</t>
   </si>
 </sst>
 </file>
@@ -1460,13 +1466,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="20 % – uthevingsfarge 1" xfId="5" builtinId="30"/>
-    <cellStyle name="Dårlig" xfId="4" builtinId="27"/>
-    <cellStyle name="God" xfId="1" builtinId="26"/>
+    <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{8EB4B6F1-0428-4A4E-976E-58851AC79332}"/>
     <cellStyle name="Normal 3" xfId="6" xr:uid="{25881CC2-F7E9-41EB-B8FE-7D109AD6C364}"/>
-    <cellStyle name="Nøytral" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="47">
     <dxf>
@@ -2471,7 +2477,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nb-NO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3116,7 +3122,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nb-NO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3482,7 +3488,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nb-NO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5712,7 +5718,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6097,11 +6103,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88673C55-5F50-4750-AADE-BB5CFAD48B7E}">
   <dimension ref="A1:V514"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
@@ -6343,7 +6349,9 @@
       <c r="P16" s="49"/>
       <c r="Q16" s="45"/>
       <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
+      <c r="S16" s="45" t="s">
+        <v>146</v>
+      </c>
       <c r="T16" s="45"/>
       <c r="U16" s="45"/>
       <c r="V16" s="45"/>
@@ -6390,7 +6398,9 @@
       <c r="P17" s="49"/>
       <c r="Q17" s="45"/>
       <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
+      <c r="S17" s="45" t="s">
+        <v>49</v>
+      </c>
       <c r="T17" s="45"/>
       <c r="U17" s="45"/>
       <c r="V17" s="45"/>
@@ -6437,7 +6447,9 @@
       <c r="P18" s="49"/>
       <c r="Q18" s="45"/>
       <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
+      <c r="S18" s="45" t="s">
+        <v>49</v>
+      </c>
       <c r="T18" s="45"/>
       <c r="U18" s="45"/>
       <c r="V18" s="45"/>
@@ -6484,7 +6496,9 @@
       <c r="P19" s="49"/>
       <c r="Q19" s="45"/>
       <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
+      <c r="S19" s="45" t="s">
+        <v>147</v>
+      </c>
       <c r="T19" s="45"/>
       <c r="U19" s="45"/>
       <c r="V19" s="45"/>
@@ -20057,7 +20071,7 @@
       <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="39" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="39" customWidth="1"/>
@@ -20248,7 +20262,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
@@ -20688,7 +20702,7 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="23" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="23"/>
@@ -21161,7 +21175,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04D4827E-F3FA-426F-9537-EA388C09E13A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04D4827E-F3FA-426F-9537-EA388C09E13A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5d469122-b85a-4b60-ae29-82fd5354a2c4"/>
+    <ds:schemaRef ds:uri="b0e02aaf-42c1-437e-a07d-6e43c73d3096"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/833 Nils Andreas Skreddernes Prosjektliste 2022.xlsx
+++ b/833 Nils Andreas Skreddernes Prosjektliste 2022.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="59" documentId="8_{8BE72A51-EBEC-4E6A-8424-44F00E79060E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7AEE902-E90E-4CA7-AADC-E7E1CCA62BF0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="28800" windowHeight="11385" xr2:uid="{4DC12D88-08A4-43A5-94ED-7CF30C4AAEA9}"/>
+    <workbookView xWindow="1395" yWindow="2160" windowWidth="16560" windowHeight="11385" xr2:uid="{4DC12D88-08A4-43A5-94ED-7CF30C4AAEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prosjektliste" sheetId="1" r:id="rId1"/>
@@ -6072,7 +6072,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="1" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -6103,8 +6103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88673C55-5F50-4750-AADE-BB5CFAD48B7E}">
   <dimension ref="A1:V514"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20937,6 +20937,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D700E17BAAE2894FA999F041327CA3F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="8eecf81d33032e25e28e82ba3b7bd07c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d469122-b85a-4b60-ae29-82fd5354a2c4" xmlns:ns3="b0e02aaf-42c1-437e-a07d-6e43c73d3096" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db3f24b9a3845c19e451ed8c46fa7bc8" ns2:_="" ns3:_="">
     <xsd:import namespace="5d469122-b85a-4b60-ae29-82fd5354a2c4"/>
@@ -21159,22 +21174,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0526427F-E0DC-4ABB-9BF6-B7B3BAB0959F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b0e02aaf-42c1-437e-a07d-6e43c73d3096"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ff3aacd1-8df3-42cb-aeed-c78a78273d20"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10192E98-882A-4DD0-B876-B74347F20F1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04D4827E-F3FA-426F-9537-EA388C09E13A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21191,29 +21216,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10192E98-882A-4DD0-B876-B74347F20F1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0526427F-E0DC-4ABB-9BF6-B7B3BAB0959F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b0e02aaf-42c1-437e-a07d-6e43c73d3096"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ff3aacd1-8df3-42cb-aeed-c78a78273d20"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>